--- a/deuChatbot/research_result/results/rouge_score/rouge_version_1(3000_500).xlsx
+++ b/deuChatbot/research_result/results/rouge_score/rouge_version_1(3000_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7355,79 +7355,4184 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 다음과 같은 특징을 가지고 있습니다:
+1. **모집단위와 종목**:
+   - 시각디자인, 산업디자인, 공예디자인 중 선택 가능합니다.
+2. **배점 및 비율**:
+   - 기초디자인과 사고의 전환 두 가지 종목 중에서 하나를 선택하여 준비해야 합니다.
+   - 각 종목은 700점으로 배점되며, 이는 총 점수의 70%를 차지합니다.
+3. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 다양한 표현 도구가 필요합니다.
+4. **실기주제 및 화지크기**:
+   - 주제는 당일 추첨을 통해 결정되며, 예시로 잠자리와 저울, 콜라병과 계절 등의 연결된 주제가 있습니다.
+   - 화지는 켄트지 3절 또는 2절이 사용됩니다.
+5. **시험시간**:
+   - 각 종목은 약 5시간 동안 진행됩니다.
+6. **주의사항**:
+   - 준비물은 개인적으로 지참해야 합니다.
+   - 주제에 따른 형상과 이미지는 표현하지 않아야 하며, 제공된 사물의 색상을 변경해서는 안 됩니다.
+이러한 특징을 고려하여 충분히 준비하고, 당일 추첨된 주제에 대해 창의적으로 접근하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4189730119700492</v>
+        <v>0.4757118927973199</v>
       </c>
       <c r="E202" t="n">
-        <v>0.288840212614816</v>
+        <v>0.1815126050420169</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3677620640497194</v>
+        <v>0.2713567839195979</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기 종목은 "기초디자인"과 "사고의 전환" 두 가지입니다.
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**:
+  - 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+    - 예시: 잠자리와 저울, 콜라병과 계절 등
+- **화지크기**:
+  - 켄트지3절 (A4 크기)
+- **시간**:
+  - 5시간
+이러한 준비물과 주제를 기반으로 당일 추첨된 주제에 따라 작품을 제작합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2782187121934901</v>
+        <v>0.4592592592592593</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1207865362768867</v>
+        <v>0.2034739454094293</v>
       </c>
       <c r="F203" t="n">
-        <v>0.2103826760067237</v>
+        <v>0.3061728395061729</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 다음과 같은 대회들이 포함됩니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.96579476861167</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.9414141414141415</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.9617706237424546</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 선택하여 연결된 주제로 작업을 합니다. 제공되는 예시 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (灯笼椒)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:  
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+학생들은 이 주제들 중에서 각각 1개를 선택하여 연결된 주제로 작업을 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5888324873096448</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.2974358974358974</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.4873096446700508</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>从提供的信息来看，东国大学的学生科成绩单中确实考虑了出勤情况。具体来说，在“其他事项”部分有关于“学生科成绩评价”的说明：
+- 学生科成绩评价：根据学生的学业成绩、课外活动经历和出勤记录等进行综合评价。
+此外，在“2024学年主要变更事项”表格中，可以看到关于实操/实绩（경기实绩优秀者）的招生类型中有提到出勤情况：
+- 实操/实绩(경기实绩优秀者)：学生科成绩30%+履历70%，其中出勤12%
+这表明在某些类型的实操/实绩招生中，确实会考虑学生的出勤记录。然而，并不是所有类型的学生科招生都包含出勤评价。
+总结来说，在东国大学的学生科招生中，至少在部分类型的招生里是会参考出勤情况的。</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.3235294117647058</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반학생전형 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5581395348837208</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.5581395348837208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+수능 영어 등급별로 다음과 같은 점수가 부여됩니다:
+1등급: 139점
+2등급: 131점 
+3등급: 123점
+4등급: 115점
+5등급: 107점
+6등급: 99점
+7등급: 91점
+8등급: 83점
+9등급: 75점
+이 점수들은 등급별로 일정하게 매겨져 있으며, 수능 영어 성적을 계산할 때 이 점수들이 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5542168674698795</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.7023809523809524</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다. 
+참조되는 내용:
+- **표 제목 : 나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원**
+  ``` 
+  [표 내용]
+  인문사회과학대학 / 인문사회 / 미디어커뮤니케이션학과 / 1 이내 /
+  예술디자인체육대학 / 자연과학 / 패션디자인학과 - 교직 / - /
+  ```
+- **표 제목 : 고교유형별 지원자격**
+  ``` 
+  [표 내용]
+  나군 / 학생부교과(농어촌학생전형) / { 지원 가능 / 지원 가능 / { 지원 불가능 /  지원 불가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 불가능 / 지원 불가능 / ] /
+  ```
+- **표 제목 : 고교유형별 지원자격 (상세)**
+  ``` 
+  [표 내용]
+  나군 / 학생부교과(농어촌학생전형) / { 지원 가능 / 지원 가능 / { 지원 불가능 /  지원 불가능 /  지원 가능 / } / { 지원 가능 /  지원 가능 / } / 지원 가능 / { 지원 가능 /  지원 가능 /  지원 가능 / } / 지원 불가능 / 지원 불가능 / ] /
+  ```
+따라서 예술고 학생은 **지원 가능**합니다. 하지만 특정 모집단위에 따라 제한이 있을 수 있으므로, 정확한 자격 여부는 해당 모집단위의 상세 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.1485714285714286</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.06896551724137932</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1257142857142857</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 해당 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.576923076923077</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경기지도학과는 출결사항이 학생부종합전형 평가요소 중 하나로 반영되지만, 정확한 출결 반영 비율은 제공된 정보에서 확인할 수 없습니다. 
+제공된 정보에는 경기지도학과의 전형 요소 반영 비율이 포함되어 있지 않아서, 출결사항의 구체적인 반영 비율을 알려드리지 못합니다.
+만약 경기지도학과의 학생부종합전형에서 출결사항이 평가되는 경우, 일반적으로 출결은 학업태도나 학교생활 참여 정도를 평가하는 부분으로 간주될 수 있습니다. 하지만 정확한 비율을 알기 위해서는 동의대학교 입학처 웹사이트 또는 관련 공지사항을 확인하시거나 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.09859154929577466</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원 표에 따르면:
+공과대학 / 공학 / 물리치료학과 - 교직 / 4 /
+따라서 동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 다음과 같은 일정으로 진행됩니다:
+- **일시**: 2024. 1. 16.(화)
+- **대기실 및 입실시간 안내**: 2024. 1. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+따라서 디자인조형학과의 실기고사는 1월 16일 화요일에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1348314606741573</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.02298850574712644</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1348314606741573</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보는 제공된 표에서 확인할 수 없습니다. 
+표 '수능(일반학생전형) 최초합격자'와 '수능(일반학생전형) 최종등록자'에는 각 단과대학별 모집단위의 지원 인원, 경쟁률 등이 나열되어 있지만, 응용화학과의 수능 최저기준은 포함되어 있지 않습니다.
+표 '수능 위주 / 다군 수능(일반학생전형) 전 모집단위'에만 수능최저기준 관련 정보가 있으며, 이는 전체 다군 수능(일반학생전형) 전 모집단위의 수능 최저기준을 나타내고 있습니다. 
+따라서 응용화학과의 특정 수능 최저기준을 확인하려면 동의대학교 입학처나 관련 홈페이지를 통해 공식 정보를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.07947019867549669</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.04026845637583893</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.06622516556291391</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과들은 다음과 같습니다:
+1. 미래융합대학 / 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 / 부동산자산경역학부 - (부동산투자학, 부동산개발경영학)
+3. 경기지도학과
+4. 심리학과
+위와 같이 4개의 신설 학과가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.5034013605442176</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 [표 속성]에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.6835443037974683</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.6582278481012658</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다. 다른 학과에서는 일반적으로 수능 가산점을 적용하지 않습니다.
+참조로, 관련 정보는 다음과 같습니다:
+- **가산점 표**에서 "의료·보건·생활, 공과, ICT융합공과대학 모집단위"에 한해 수학(미적분 or 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여하고 있습니다.
+- 다른 학과에서는 일반적으로 수능 가산점이 적용되지 않습니다. 
+따라서 동의대학교에서 수능 가산점을 받을 수 있는 학과는 한의예과 중 수학(미적분/기하) 응시자에 한정됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4723618090452261</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.2944162436548223</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.3517587939698492</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 국어(화법과작문 또는 언어와매체) : 25%
+2. 수학(확률과통계 또는 미적분 또는 기하) : 25%
+3. 영어 : 25%
+4. 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+이러한 각 영역의 표준점수를 반영하여 총점을 산출합니다.
+참고로, 일부 모집단위에서는 수학(미적분 또는 기하) 응시자의 경우 수학 취득 표준점수의 10% 가산점이 부여될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.2389937106918239</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.05095541401273885</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.
+이 정보는 다음과 같은 표에서 추출되었습니다:
+[표 추가내용]
+```
+&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과 / 2024. 01. 16.(화) / 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 /
+```
+따라서, 가군의 실기고사는 1월 16일에 예정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.293103448275862</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 제외된 모집단위는 다음과 같습니다:
+1. 디자인조형학과 (실기/실적 위주 전형에서 제외됨)
+2. 체육학과 (실기/실적 위주 전형에서 제외됨)
+3. 경기지도학과 (학생부종합(조기취업형계약학과전형)에서 신설됨)
+이 정보는 "2024학년도 주요 변경사항" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.3622047244094488</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.3149606299212598</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 성적이 모집단위별로 최저 기준을 설정하여 반영됩니다.
+다군 수능(일반학생전형)에 대한 주요 내용은 다음과 같습니다:
+1. **모집단위 별 수능 최저기준**:
+   - 모든 모집단위에서 수능 성적이 최저 기준을 충족해야 합니다.
+2. **수능 반영 영역 및 비율**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+3. **가산점**:
+   - 공과대학, ICT융합공과대학 모집단위의 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점이 부여됩니다.
+4. **최저기준 적용**:
+   - 각 모집단위별로 정해진 최저 점수를 충족해야 합격이 가능합니다.
+   - 동점자 처리 시에도 수능 성적이 중요한 기준으로 활용됩니다.
+따라서, 다군 전형에서 수능 최저기준은 반드시 충족되어야 하며, 이는 모집단위별로 다르게 설정될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1138211382113821</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.06557377049180328</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.1056910569105691</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 -&gt; 아동학과
+2. 경제금융보험학과 -&gt; 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) -&gt; 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 -&gt; 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) -&gt; 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) -&gt; 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) -&gt; 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) -&gt; 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) -&gt; 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) -&gt; 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) -&gt; 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) -&gt; 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) -&gt; 전기공학과, 전자공학과
+이 외에도 새로운 학과와 전공도 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8755490483162517</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.7929515418502201</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.8462664714494876</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 전형 일정에 따르면, 인터넷 원서 접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+원서접수 마감일 2024. 01. 06.(토) 18시 정각에 원서접수 사이트 접속이 차단되므로, 지원자는 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+마감 시한까지 원서접수를 완료하지 못한 경우, 지원자 본인의 책임으로 인해 불이익을 받을 수 있으니 유의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.1626016260162602</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **영어영문학과 (정시모집군 변경)**
+   - 영어영문학과는 정시모집군이 변경되었습니다.
+2. **호텔‧컨벤션경영학과 (정시모집군 변경)**
+   - 이 전형도 정시모집군이 변경되었습니다.
+3. **로봇자동화공학과 (정시모집군 변경)**
+   - 로봇자동화공학과 역시 정시모집군이 변경되었습니다.
+4. **토목공학과 (정시모집군 변경)**
+   - 토목공학과도 정시모집군이 변경되었습니다.
+5. **응용화학과 (정시모집군 변경)**
+   - 응용화학과 역시 정시모집군이 변경되었습니다.
+6. **바이오의약공학과 (정시모집군 변경)**
+   - 바이오의약공학과도 정시모집군이 변경되었습니다.
+7. **제품디자인공학과 (정시모집군 변경)**
+   - 제품디자인공학과 역시 정시모집군이 변경되었습니다.
+8. **전기공학과 (정시모집군 변경)**
+   - 전기공학과도 정시모집군이 변경되었습니다.
+9. **전자공학과 (정시모집군 변경)**
+   - 전자공학과 역시 정시모집군이 변경되었습니다.
+10. **조기취업형계약학과전형**
+    - 이 전형은 새로운 모집단위가 추가되었으며, 서류평가와 면접평가의 배점이 변경되었습니다.
+이러한 변화는 각 전형별로 평가 방식이나 모집군 분류에 영향을 미치므로 지원자들은 해당 정보를 참고하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2089914945321993</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.08769792935444579</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.1409477521263669</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과:
+  - 제자리 멀리뛰기: 35%
+  - Z-런: 35%
+- 체육학과:
+  - 제자리 멀리뛰기: 24%
+  - 메디신볼 던지기: 23%
+  - Z-런: 23%
+따라서, 실기 비중은 모집단위에 따라 다르지만, 대체로 50% 정도입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.2291666666666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.2857142857142858</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 나군 학생부종합(평생학습자전형) 모집단위로 운영되며, 각 전공별로 정원이 다음과 같습니다:
+- 스타트업창업투자학: 11명
+- 뷰티비즈니스학: 23명
+- 라이프생활문화학: 7명 (성인학습자(정원내)전형)
+- 라이프생활문화학: 17명 (성인학습자(정원외)전형)
+- 라이프생활문화학: 7명 (재직자전형)
+따라서, 라이프융합학부는 총 48명의 학생을 모집하며, 세부 전공별로 다양한 분야를 다루고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.2315789473684211</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.6571428571428573</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+3. 레저스포츠학과 
+4. 태권도학과
+이 학과들은 전형요소 반영비율에서 실기/실적 부분의 비중이 높게 설정되어 있습니다.
+추가로, 지원자가 해당 학과에 지원하려면 다음과 같은 절차를 따르는 것이 좋습니다:
+1. 해당 학과의 실기고사 일정 확인
+2. 필요 서류 준비 (실기고사 결과증명서 등)
+3. 온라인 원서 접수 
+4. 제출서류 제출 (필요한 경우)
+자세한 내용은 동의대학교 입학처 홈페이지를 참고하시거나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.3919597989949749</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.2842639593908629</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.3115577889447236</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+这三个专业旨在培养与生活融合相关的创业、美容和生活方式管理等方面的人才。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>지원 가능 여부는 주로 지원자의 거주지와 재학 기간에 따라 결정됩니다. 동의대학교의 나군 학생부교과(농어촌학생전형)에서는 농어촌 지역에 소재한 특수목적고등학교 출신자도 지원이 가능하지만, 일반적으로 특수목적고등학교는 해당 조건을 만족시키지 못하기 때문에 지원이 어렵습니다.
+특수목적고등학교 학생이라면 다음과 같은 전형으로 지원할 수 있습니다:
+1. **나군 학생부교과(농어촌학생전형)**: 
+   - 농어촌 지역에 소재한 특수목적고등학교에서 6년 과정 또는 12년 과정을 이수하고 거주한 자가 지원 가능합니다.
+2. **나군 학생부종합(평생학습자전형)**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자입니다.
+3. **나군 학생부종합(성인학습자(정원내·외)전형)**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자입니다.
+4. **나군 학생부종합(재직자전형)**:
+   - 「고등교육법 시행령」 제29조 제2항 제14호‘다’목에 해당하는 자로서, 2024년 3월 1일 기준 산업체 근무경력이 3년 이상인 재직자입니다.
+따라서 특수목적고등학교 학생이라면 위의 전형 중 농어촌학생전형을 통해 지원할 수 있습니다. 만약 농어촌 지역에 소재한 특수목적고등학교에서 재학하고 거주했다면, 나군 학생부교과(농어촌학생전형)를 통해 지원 가능합니다.
+만약 이러한 조건을 만족하지 않는다면, 다른 전형으로 지원해야 할 것입니다. 자세한 내용은 동의대학교 입학 홈페이지나 관계 부서에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.2015503875968992</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.1550387596899225</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해 수능(일반학생전형) 최초합격자 표와 전형별 모집단위별 모집인원 표를 살펴보겠습니다.
+수능(일반학생전형) 최초합격자 표에서 가장 많은 모집 인원을 가진 학과는 다음과 같습니다:
+1. 의료·보건·생활대학의 간호학과: 22명
+2. 공과대학의 기계공학과, 로봇자동화공학과, 자동차공학과: 77명
+전형별 모집단위별 모집인원 표에서 가장 많은 모집 인원을 가진 학과는 다음과 같습니다:
+1. 공과대학의 기계공학과, 로봇자동화공학과, 자동차공학과: 77명
+2. 의료·보건·생활대학의 간호학과: 22명
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **공과대학의 기계공학과, 로봇자동화공학과, 자동차공학과**로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.242152466367713</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.1266968325791855</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1973094170403588</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，则不符合동의대학교 (동义大学) 农村学生（농어촌학생전형）的申请资格。因为表格中显示：
+- 特殊教育高中（특수목적고등학교）不在农村学生的支持资格范围内。
+所以，如果你是特殊教育高中的学生，你不能通过农村学生的途径申请 동의대학교。你需要查看其他适合你的申请途径。你可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 以获取更多详细信息。
+如果你有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.08695652173913045</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.148936170212766</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 317.87 / 7.35 }
+따라서, 소프트웨어공학부 합격자들의 평균 성적은 표준 변환 점수 합으로 317.87점이며, 표준 편차는 7.35입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2075471698113208</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.2075471698113208</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: {330.11 / 9.08}
+따라서, 소프트웨어공학부 최초합격자의 평균 성적은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 합격자 발표 일정은 다음과 같습니다:
+1. 최초합격자 발표:
+   - 날짜: 2024년 2월 2일(금) 14:00
+2. 최초합격자 등록:
+   - 기간: 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+3. 충원 합격자 발표 (1차):
+   - 날짜: 2024년 2월 14일(수) 09:00
+4. 충원 합격자 등록 (1차):
+   - 기간: 2024년 2월 14일(수) 09:00 ~ 16:00
+5. 충원 합격자 발표 (2차):
+   - 날짜: 2024년 2월 15일(목) 09:00
+6. 충원 합격자 등록 (2차):
+   - 기간: 2024년 2월 15일(목) 09:00 ~ 16:00
+7. 충원 합격자 발표 (3차 이후):
+   - 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+각 단계에서 합격 여부는 입학안내 홈페이지를 통해 확인해야 하며, 지정된 기간 내에 등록금을 납부하지 않으면 등록이 포기되는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5197368421052632</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.3642384105960265</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.4934210526315789</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>면접은 각 모집단위별로 일정한 날짜와 시간에 이루어집니다. 일반적으로 면접일정은 전형일정표에서 확인할 수 있습니다.
+예를 들어, 전형일정 표에는 다음과 같은 정보가 포함되어 있을 것입니다:
+- **합격자 발표 및 등록금 납부 최초 합격자 발표**: 2024. 02. 02.(금) 14:00
+- **합격자 발표 및 등록금 납부 최초 합격자 등록**: 2024. 02. 07.(수) ~ 02. 13.(화)
+- **면접일시** (예시): 2024. 02. [일정] (具体的日期)
+为了给您准确的答案，请您参考以下步骤：
+1. 访问学校官网：[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+2. 查找并点击“招生信息”或类似标题的链接。
+3. 在招生信息页面中，查找具体的招生日程安排。
+通常，在招生日程安排中会详细列出各个阶段的时间节点，包括面试的具体日期和时间。您可以根据自己的申请情况查看对应的信息。
+如果您需要更具体的信息，请告诉我您感兴趣的学院或专业名称，我可以帮助您找到更详细的面试安排。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.02197802197802198</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.108695652173913</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>从提供的信息中，没有直接提到韩医本科预科（한의예과）的具体最低学力标准。但是，根据韩国大学的一般入学要求，通常以下几点是考虑因素：
+1. **高中毕业**：大多数韩国大学要求申请者必须具备高中毕业证书。
+2. **学科成绩**：虽然不是所有专业都强制要求，但一些专业可能会参考学生的高中科目成绩。
+3. **其他资格**：某些专业可能还会考虑其他资格或经历。
+对于韩医本科预科（한의예과），通常会有一些特定的要求，比如：
+- 高中毕业证书
+- 一定的医学相关基础知识和技能
+- 可能需要通过入学考试
+具体到东国大学的韩医本科预科（한의예과）的具体最低学力标准，建议直接参考该大学官方发布的招生简章或咨询学校招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.03636363636363637</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到2024年各专业在普通类（정시）招生中的具体最低录取分数线要求。但是，通常情况下，大学会在其官方网站上公布具体的最低录取标准。
+对于是否有关于普通类（정시）的最低学力基准（수능최저학력기준），建议直接访问东国大学的官方网站（http://ipsi.deu.ac.kr/main.do）查看最新的招生简章和具体要求。招生办公室通常会详细列出各专业的最低录取标准，包括但不限于：
+1. 高考总分
+2. 各科目的分数要求
+3. 英语等级或其他外语成绩
+如果需要更准确的信息，请访问该网站或直接联系学校的招生办公室获取最新数据。
+如果您想了解更多信息，可以参考以下步骤：
+1. 访问东国大学的官方网站。
+2. 寻找“招生”或“ Admission”相关的页面。
+3. 查看具体的招生简章和各专业的录取要求。</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일(수)부터 2024년 2월 20일(화)까지 충원합格候选人的回答如下：
+补充说明，具体的公布时间安排如下：
+- 第一次补录合格者公布：2024年2月14日（星期三）上午9:00
+- 第一次补录合格者注册：2024年2月14日（星期三）上午9:00至下午4:00
+- 第二次补录合格者公布：2024年2月15日（星期四）上午9:00
+- 第二次补录合格者注册：2024年2月15日（星期四）上午9:00至下午4:00
+- 三次及以后补录合格者公布：2024年2月15日（星期四）晚上7:00至2024年2月20日（星期二）下午6:00
+- 三次及以后补录合格者注册：根据电话通知安排
+请确保在此期间内及时查看学校官网的个人录取状态，并在规定时间内完成注册。</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.2165605095541401</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.1419354838709678</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.178343949044586</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>3차 충원 합격자는 다음과 같은 일정에 발표됩니다:
+- 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+- 1차 충원 합격자 등록: 2024년 2월 14일(수) 09:00~16:00
+- 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+- 2차 충원 합격자 등록: 2024년 2월 15일(목) 09:00~16:00
+- 3차 이후 충원 합격자는 개별 전화 통보를 통해 발표되며, 이는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 이루어집니다.
+따라서 추가합격자(3차 이후 충원 합격자)는 최소한 2024년 2월 15일(목) 19:00부터 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.6103286384976526</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.4739336492890996</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.5352112676056339</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에서 추가모집은 없습니다. 정시모집에서는 정시&lt;나&gt;군으로 추가모집 인원이 이월될 수 있습니다. 자세한 내용은 모집요강 및 입학처 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 제공하는 전형 중 하나로, 주요 특징과 지원 자격, 모집 단과대학 및 계열 등을 다음과 같이 요약할 수 있습니다:
+### 주요 특징:
+1. **모집단위와 인원**:
+   - 미래융합대학 / 라이프융합학부 (신설): 11명
+   - 미래융합대학 / 부동산자산경영학부: 7명
+2. **지원 자격**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+3. **산업체 재직기간**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+   - 중복되는 기간은 합산하지 않음
+### 전형요소 반영비율:
+- **서류**: 100%
+- **면접**: 없음 (학생부종합전형)
+### 동점자 처리기준:
+1. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+2. 영어교과 전 과목 등급 평균 상위자
+3. 국어교과 전 과목 등급 평균 상위자
+### 추가 정보:
+- **제출서류**: 학생부 온라인 제공 동의자에 한해 제출할 필요 없음, 그렇지 않은 경우 학교생활기록부 1부를 제출해야 함
+- **면접평가 영역 및 배점**:
+  - 공동체역량: 최고 120점, 최저 84점 (모집단위별 입학사정관 2인)
+  - 학업역량: 최고 240점, 최저 168점
+  - 전공적합성: 최고 240점, 최저 168점
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.3784494086727989</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.1422924901185771</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.2207621550591327</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 두 가지 유형으로 구성되어 있습니다.
+- **6년 과정**:
+  - 농어촌(읍·면)지역 소재 중·고등학교에서 전 교육과정을 이수한 자
+  - 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자
+- **12년 과정**:
+  - 부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자
+이 외에도 다음과 같은 조건들이 있습니다:
+- 지원자는 국내 고교 졸업(예정)자여야 합니다.
+- 6년 과정의 경우, 부모가 사망하거나 이혼한 경우에는 제외됩니다.
+- 행정구역은 초·중·고등학교 재학 당시의 행정구역 단위를 적용하며, 중·고등학교 입학 당시 읍·면 지역이 재학 도중 또는 졸업 이후 동으로 개편된 경우 소재지를 읍·면 지역으로 간주합니다.
+- 최초 입학일부터 졸업일까지 농어촌지역 또는 도서·벽지에 거주, 재학하지 않으면 불합격 또는 합격 이후라도 입학이 취소될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.1085271317829457</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.04687499999999999</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.09302325581395349</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 학과의 시험장소에서 치러집니다. 각 학과별로 실시되는 실기고사의 세부 정보는 다음과 같습니다:
+1. 레저스포츠학과:
+   - 제자리 멀리뛰기
+   - Z-런
+2. 태권도학과:
+   - 품새 (품새 종목, 지정 품새: 고려)
+   - 시범 
+   - 겨루기
+3. 체육학과:
+   - 제자리 멀리뛰기
+   - 메디신볼 던지기
+   - Z-런
+실제 시험일에 해당 학과의 시험장소를 확인하고, 운동복 및 운동화를 착용하여 참가해야 합니다. 각 실기종목별로 2회 반칙시 최저점수를 받을 수 있으므로 주의해야 합니다.
+시험 당일에는 다음과 같은 준비물도 지참해야 합니다:
+- 레저스포츠학과: 백색 도복
+- 태권도학과: 백색 도복, 태권도화 (착용 금지)
+- 체육학과: 운동복 및 운동화
+추가로, 부상 또는 기타 사유로 기권한 경우에도 해당 종목에 최저점수를 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.07373271889400922</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.009302325581395347</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. 운동복 및 운동화를 착용해야 합니다.
+   - 스파이크, 축구화 등 특수화는 불가능합니다.
+   - 신발바닥에 이물질이 가착되지 않도록 주의해야 합니다.
+2. 실기종목별로 준비물이 필요합니다:
+   - 제자리 멀리뛰기는 운동복과 운동화만 필요합니다.
+   - 메디신볼 던지기는 메디신볼(남자 3kg, 여자 2kg)도 함께 가져가야 합니다.
+3. 실기 당일 부상 또는 기타 사유로 인해 기권한 경우에도 해당 종목에 최저점수를 받게 됩니다.
+4. 각 실기종목별로 2회 반칙 시 최저점수를 받게 됩니다.
+따라서, 체육학과의 실기고사는 운동복과 운동화를 입고 메디신볼을 준비하여 실기장으로 이동해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.0748663101604278</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.01081081081081081</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.0748663101604278</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 충원합격자 발표에서는 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 이 기간 동안에는 반드시 전화를 받는 것이 중요합니다.
+따라서 정확한 답변은 다음과 같습니다:
+- 2차 및 3차 충원합격자 발표에서는 별도의 개인 연락이 없습니다.
+- 하지만 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 3차 이후 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다.
+따라서 이 기간 동안에는 반드시 전화를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.1403508771929825</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.2260869565217391</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과를 위에서 제공된 정보로 파악하기는 어렵습니다. 하지만, 2024학년도 경찰행정학과의 모집인원 및 지원자 수와 관련된 정보를 확인할 수 있습니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원은 29명으로, 경쟁률이 약 4.14입니다. 이는 2023학년도와 유사한 경쟁률을 보였을 가능성이 높습니다.
+더 정확한 2023학년도의 수시모집 결과를 확인하려면 동의대학교 입학처 웹사이트나 관련 공지사항을 참고하시거나, 대학 관계자에게 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.1298701298701299</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부종합전형과 농어촌학생전형 등은 수능 없이 지원할 수 있습니다.
+특히 주목해야 할 점들은 다음과 같습니다:
+1. **학생부종합전형**: 이 전형에서는 수능을 응시하지 않아도 지원 가능합니다. 다만, 학생부 교과성적과 면접 등 다른 평가 요소를 통해 선발됩니다.
+2. **농어촌학생전형 (정원외)**: 이 전형에서도 수능은 선택사항입니다. 대신 농어촌 지역 출신 자격을 갖추고 학생부 교과성적 등을 통해 지원할 수 있습니다.
+3. **실기/실적 위주 전형**: 일부 실기/실적 위주의 전형에서는 수능이 필요하지 않습니다. 예를 들어, 경기지도학과와 같은 전형은 실기 및 실적을 중점적으로 평가합니다.
+따라서 수능 응시 여부에 따라 다양한 전형에서 지원할 수 있는 기회가 주어집니다. 하지만 일반적으로 대부분의 전형에서는 수능 점수가 합격 요건 중 하나로 포함되므로, 수능 준비는 중요하다고 볼 수 있습니다.
+자세한 내용은 동의대학교 입학처 홈페이지나 모집요강을 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.1035856573705179</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.0321285140562249</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.0796812749003984</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일반고 출신인 경우, 고등학교 졸업 후 10년이 경과하더라도 지원 가능합니다. 다만, 일부 전형에 대한 추가 조건이 있을 수 있으므로 확인해야 할 사항은 다음과 같습니다:
+1. **학생부종합전형**:
+   - 지원 자격: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+   - 지원 가능: 만 30세 이상이므로 지원 가능합니다.
+2. **성인학습자 전형**:
+   - 지원 자격: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+   - 지원 가능: 만 30세 이상이므로 지원 가능합니다.
+3. **재직자 전형**:
+   - 지원 자격: 「고등교육법 시행령」 제29조 제2항 제14호 ‘다’목에 해당하는 자로서, 2024년 3월 1일 기준 산업체 근무경력이 3년 이상인 재직자
+   - 지원 가능 여부: 고등학교 졸업 후 10년이 지났으므로, 이 기간 동안 재직 경력을 유지했다면 지원 가능합니다.
+4. **학생부교과전형**:
+   - 지원 자격: 일반고 출신으로서 정원내외 모집단위에 따라 지원 가능 여부가 다릅니다.
+   - 지원 가능 여부: 고등학교 졸업 후 10년이 지났다는 것은 특별한 제한 없이 지원 가능합니다.
+5. **실기/실적 전형**:
+   - 지원 자격: 특정 전형에 따라 요구되는 조건이 다릅니다.
+   - 지원 가능 여부: 고등학교 졸업 후 10년 경과와 관계없이, 해당 전형의 기준을 충족하면 지원 가능합니다.
+따라서, 정시모집에서 일반고 출신으로 만 30세 이상인 경우 대부분의 전형에 지원이 가능하지만, 구체적인 모집단위별 자격 요건을 확인하여 지원 가능한 전형을 선택하시기 바랍니다. 또한, 각 전형의 추가 조건이나 제출 서류 등을 꼭 확인하시기 바랍니다.
+추가 정보를 원하신다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.162046908315565</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.03854389721627409</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.09381663113006397</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일 (화)
+2. 원서접수(인터넷): 
+   - 접수기간: 2024년 1월 3일 (수) ~ 6일 (토)
+   - 마감시간: 18시
+3. 서류 제출 (제출서류가 있는 경우):
+   - 접수기간: 2024년 1월 3일 (수) ~ 12일 (금)
+   - 마감시간: 17시
+   - 서류 제출 대상자: 특정 모집단위에 따라 다름
+4. &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과):
+   - 일정: 2024년 1월 16일 (화)
+5. &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과): 
+   - 일정: 2024년 1월 17일 (수)
+6. 합격자 발표 및 등록금 납부:
+   - 최초합격자 발표: 2024년 2월 2일 (금)
+   - 최초합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화)
+7. 충원 합격자 발표 및 등록:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수)
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) ~ 16일 (목)
+8. 3차 이후 충원 합격자 발표 및 등록:
+   - 일정: 2024년 2월 15일 (목) ~ 20일 (화)
+   - 전화통보로 진행
+이 일정은 일반적으로 동의대학교 정시 모집에서 적용되지만, 특정 모집단위나 전형에 따라 약간의 차이가 있을 수 있으므로 공식 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4506065857885615</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.3055555555555555</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.3830155979202773</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토)
+   - 마감시간: 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금)
+   - 마감시간: 도착분까지
+   - 접수장소: (우편번호: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 
+     - 가군, 나군, 다군: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 
+     - 가군, 나군, 다군: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+7. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자 3차 이후 (개별 전화 통보): 
+     - 발표: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+     - 등록: 개별 전화통보 시 안내
+이 일정은 일반적으로 동의대학교 정시모집에서 적용되며, 각 모집단위에 따라 세부적인 일정이 다를 수 있으므로 공식 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6225961538461539</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.4216867469879518</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. 실기/실적 위주 전형 (가군, 나군)
+   - 레저스포츠학과
+   - 태권도학과
+2. 학생부교과 전형 (나군)
+   - 농어촌학생전형
+   - 특성화고동일계전형
+3. 학생부종합 전형 (나군)
+   - 성인학습자(정원내)전형
+   - 성인학습자(정원외)전형
+   - 재직자전형
+   - 조기취업형계약학과전형
+4. 실기/실적 위주 전형 (나군)
+   - 디자인조형학과
+   - 체육학과
+   - 경기지도학과
+이러한 전형들은 수능 미응시자를 대상으로 지원이 가능하며, 각 전형별로 다른 평가 기준을 따릅니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.0505050505050505</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 모집요강을 바탕으로, 전년도인 2023년 전자공학과의 충원 합격은 2차까지 이루어졌습니다. 이는 다음과 같은 정보에서 추론할 수 있습니다:
+- 2024년 전형일정 표에 따르면, 충원 합격자는 1차와 2차로 발표됩니다.
+- 각 차례별로 일정이 정해져 있으며, 3차 이후의 충원은 개별 전화통보 방식으로 이루어집니다.
+따라서 전년도인 2023년에도 비슷한 절차가 적용되었을 것으로 추정할 수 있습니다. 하지만 정확한 정보는 해당 대학의 입학처 웹사이트나 공지사항을 확인하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.3229813664596273</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1987577639751553</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要查询具体的联系电话，建议访问东义大学的官方网站，在“联系我们”或“招生办公室”等相关页面查找联系方式，或者直接访问以下链接以获取更多信息：https://ipsi.deu.ac.kr/main.do
+如果需要电话联系，可以尝试拨打一般大学的咨询热线，但请注意这可能不是入学处的具体电话。建议通过官网或其他官方渠道获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자는 개별 전화통보 방식으로 발표됩니다. 그러나 전화 통화가 되지 않을 경우, 해당 지원자는 다음과 같은 절차를 따르어야 합니다:
+1. 합격 여부 확인: 모든 지원자는 합격자 발표일에 합격 여부를 반드시 입학안내 홈페이지에서 확인해야 합니다.
+2. 등록 절차: 지정 기간 내에 등록금을 납부해야 하며, 지정 기일 내에 등록하지 않으면 등록(입학) 포기로 간주됩니다.
+따라서 전화 통화가 되지 않을 경우에도 지원자는 홈페이지를 통해 합격 여부를 확인하고, 지정된 기간 내에 등록 절차를 완료해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.374384236453202</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.1293532338308458</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.2561576354679803</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형으로 지원시 각각 다음과 같은 서류를 제출해야 합니다:
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 (교육기관에서 발급)
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자, 교육기관에서 발급)
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자, 교육기관에서 발급)
+### 기타 공통사항:
+- 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출 가능합니다.
+최종 등록자 중 고교 졸업예정자는 졸업 후 추가로 학교생활기록부를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.6573208722741434</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.5312500000000001</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.6043613707165109</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+주요 내용은 다음과 같습니다:
+1. 지원자의 주민등록초본을 제출해야 합니다.
+2. 초·중·고등학교에서의 학교생활기록부를 각각 1부씩 제출합니다.
+3. 고등학교 학교생활기록부는 온라인 제공이 가능한 경우 제출하지 않아도 되지만, 비대상 교육기관이나 동의가 없는 경우에는 반드시 제출해야 합니다.
+4. 모든 서류는 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+이러한 서류들은 지원자의 학력과 농어촌 지역 거주 경력을 증명하기 위한 중요한 자료입니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5491525423728814</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.3412969283276451</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.3864406779661017</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于"低收入机会均等类型"（저소득 기회균등）的任何内容。根据现有表格和内容，没有看到与该类型的招生相关的信息。
+不过，可以参考一般性的大学招生政策来推测：
+1. 如果学校确实有针对低收入家庭学生的特殊招生计划，通常会在招生简章或专门的说明文件中详细列出。
+2. 有些大学可能会设立专项奖学金或者助学金项目，而不是直接在招生名额上体现。
+3. 对于这类学生，学校可能还会提供额外的支持服务和资源。
+建议直接访问东国大学官网（http://ipsi.deu.ac.kr）或联系学校的招生办公室获取最准确的信息。如果确实有相关计划，通常会在官方网站的招生信息部分找到详细说明。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>依据提供的信息，如果社会(包括历史/道德)科目的两个科目成绩分别为2和3等第，则平均分是2.5。对于是否进行四舍五入处理，根据补充内容中的说明：
+```
+동점자 처리기준별 등급 평균 산출 불가 시 9등급으로 적용하며, 등급 평균 산출 시 소수점 셋째 자리에서 절사 처리합니다。
+```
+这表明，在计算平均等级时，会保留到小数点后三位，并进行向下取整（即四舍五入）。因此，2.5等第将会被处理为3等第。
+所以，如果两个社会科目的成绩分别是2和3等第，则最终的平均分是3等第。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1694915254237288</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.1186440677966102</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>3차 이후입니다. 
+정시 모집의 충원 합격자는 다음과 같이 발표됩니다:
+1. 최초합격자 발표 및 등록 (2024년 2월 2일)
+2. 1차 충원 합격자 발표 및 등록 (2024년 2월 14일 ~ 16일) 
+3. 2차 충원 합격자 발표 및 등록 (2024년 2월 15일)
+4. 3차 이후 충원 합격자는 개별 전화 통보로 발표되며, 이 시점부터는 홈페이지를 통해 개별 조회 가능합니다. (2024년 2월 15일 ~ 20일)
+따라서 최종적으로 3차 이후에 발표되는 충원 합격자는 개별 전화통보를 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.4711538461538461</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.1941747572815534</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.3173076923076923</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. e비즈니스학과的招生计划和录取标准。
+2. 该专业的最低录取分数线。
+3. 学生的具体成绩情况。
+根据提供的表格数据，我们可以看到e비즈니스学专业的相关信息如下：
+- 招生人数：10人
+- 报名人数：89人
+- 竞争比：8.9:1
+- 国语+数学+2个探究（含加分）标准转换分数总和均值：438.60，标准差：6.87
+- 英语等级均值：3.20，标准差：1.24
+- 4个科目等级均值：4.17，标准差：0.19
+从这些数据来看，e비즈니스学专业的平均录取分数为438.60分（含加分），而您提到的4.6分是指英语等级。我们需要将这个英语等级转换成具体的分数。
+根据提供的“수능 영어영역 등급에 따른 점수”表格：
+- 3等：123分
+- 4等：115分
+因此，如果学生的英语等级为4，则对应的分数是115分。这比平均录取分数（含加分）要低很多。
+综上所述，仅凭您提供的信息来看，一个英语等级为4.6的学生（即英语等级为3或4），其总成绩很可能低于该专业的平均录取分数线。因此，在没有其他特殊因素的情况下，这位学生通过e비즈니스学专业正取的可能性较低。
+但是请注意，这只是一个基于现有数据的初步判断。实际录取情况可能会因多种因素而有所不同，包括但不限于：
+- 是否有加分项
+- 个人特长或特殊才能
+- 学校的具体招生政策
+建议直接咨询学校获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2004889975550122</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.01474201474201474</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.1320293398533007</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최초합격자들의 수능 성적 분포를 살펴보겠습니다.
+e비즈니스학과의 최초합격자의 수능 4개 영역 (국어 + 수학 + 영어 + 탐구) 표준 변환 점수 합 평균은 **450.78**입니다. 이는 다음과 같습니다:
+```
+인문사회과학대학 / e비즈니스학과 / 10 / 89 / 8.90 / 31 / { 326.89 /  6.92 / } / { 2.88 /  0.56 / } / { 3.88 /  0.14 / } / { 450.78 /  5.90 / } /
+```
+이 수치를 바탕으로, 정시 등급 5.3의 학생은 대략적으로 수능 점수는 다음과 같을 것으로 추정할 수 있습니다:
+- 국어: 약 120점 (등급 4)
+- 수학: 약 90점 (등급 3)
+- 영어: 약 85점 (등급 7)
+- 탐구: 약 60점 (등급 5)
+이 점수들을 합치면:
+120 + 90 + 85 + 60 = 355
+이는 평균적인 최초합격자들의 점수(450.78)에 비해 상당히 낮습니다.
+따라서, 정시 등급 5.3의 학생이 e비즈니스학과에 최초 합격하기는 어렵다고 볼 수 있습니다. 그러나 입학전형은 다양한 요소를 고려하므로, 지원자의 서류 평가, 면접 성적 등을 포함하여 총합격 가능성 판단을 내릴 때는 주의해야 합니다.
+결론적으로, 정시 등급 5.3으로 e비즈니스학과에 최초 합격하기는 매우 어렵다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.2864864864864865</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.1141304347826087</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.2054054054054054</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了评估您是否有资格被预录取,我们需要考虑以下几个因素:
+1. 您的成绩:
+   - 国语: 104分 (标准分数)
+   - 数学(微积分): 108分 (标准分数) 
+   - 英语: 4等 (等级分数)
+   - 社会科学(历史/道德包含): 59分 (标准分数)
+2. 您的成绩在同一批次中排名:
+   国语、数学、英语和社会科学的平均等级为:
+   (104 + 108 + 4等 + 59) / 4 = 76.75
+3. 预录取的标准:
+   - 根据表格,预录取标准是国语、数学、英语和社会科学的平均等级在前20%左右。
+从您提供的成绩来看:
+- 国语和数学都比较高
+- 英语等级一般
+- 社会科学也相对较高
+综合来看,您的成绩应该处于中上水平。但是要达到预录取标准还需要更高的社会科学分数或者英语等级。
+建议:
+1. 努力提高社会科学的成绩。
+2. 如果可能的话,尝试提升英语等级。
+3. 关注后续的补充信息和调整策略。
+虽然不能保证一定能被预录取,但您的成绩还是有很大机会的。请继续努力并关注学校发布的最新信息。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수만으로는 확실한 결론을 내리기는 어렵습니다. 하지만 몇 가지 정보를 바탕으로 분석해볼 수 있습니다:
+1. 동의대학교 간호학과의 경쟁률은 매우 높습니다 (6.59). 
+2. 최초합격자들의 평균 영어 등급이 3.37에서 4.85 사이로, 대부분이 4등급 이상입니다.
+3. 최종등록자의 경우 평균 영어 등급은 2.34에서 5.20 사이로 더 낮습니다.
+4. 국어+수학+탐구(가산점 포함) 표준 변환 점수의 평균은 318.67에서 489.72 사이입니다. 
+5. 경쟁률이 매우 높고, 특히 영어 등급이 중요하게 반영되는 만큼 3.44는 낮은 편입니다.
+하지만 모든 것이 절대적이지 않습니다. 다음과 같은 경우에도 합격 가능성은 있습니다:
+- 특기사항이나 활동 경력이 매우 뛰어나다면
+- 면접에서 좋은 인상을 줄 수 있다면 
+- 기타 평가 항목에서 우수한 점수를 받을 수 있다면
+결론적으로, 3.44는 낮은 편의 점수지만 불가능한 것은 아닙니다. 전반적인 지원 자료와 면접 성과 등을 고려해보시고, 필요하다면 추가 준비를 하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2698961937716263</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.0627177700348432</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1730103806228374</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 경우, 수능 최저학력기준을 충족해야 합니다. 간호학과는 일반적으로 높은 경쟁률을 보이는 학과로, 평균적인 성적보다 더 높은 점수를 요구하기도 합니다.
+주어진 정보만으로는 정확한 판단이 어렵지만, 수능 최저학력기준을 충족하는지 확인해야 합니다. 간호학과의 수능 최저학력기준은 대체로 국어, 수학, 영어 등급 중 높은 점수를 요구하기 때문에, 2.52라는 성적만으로는 불확실합니다.
+추가적으로 고려해야 할 사항:
+1. **경쟁률과 모집인원**: 간호학과의 경쟁률이 매우 높기 때문에, 최저학력기준을 충족한다고 해도 합격 가능성은 낮습니다.
+2. **면접 성적**: 면접 점수도 중요한 요소입니다. 일부 대학에서는 면접 점수가 합격 결정에 큰 영향을 미칩니다.
+3. **추가 지원 자료**: 서류평가, 추천서 등 추가 지원 자료의 질과 양도 중요합니다.
+따라서, 정확한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 좋습니다. 또한, 다른 대학이나 학과를 고려해보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2382671480144404</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.06545454545454546</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.1371841155234657</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 국어수학영어 등급 점수가 간호학과의 경쟁률과 모집인원을 고려하면 합격 가능성은 낮지만, 불가능한 것은 아닙니다.
+간호학과의 특징:
+1. 경쟁률이 매우 높습니다 (예: 6.59).
+2. 수능 최저 기준 없음.
+3. 모집인원이 많지 않으므로 선발 인원은 제한적입니다.
+3.7의 점수는 대체로 중간 정도의 성적이지만, 간호학과의 경쟁률을 고려하면:
+- 수능 최저 기준 없음으로 절대 낮은 점수가 합격하는 것은 아닙니다.
+- 지원자의 전반적인 성적, 서류 평가, 면접 등이 중요합니다.
+추천 사항:
+1. 꼭 서류와 면접 준비를 철저히 하세요.
+2. 간호학과에 대한 열정과 적합성을 잘 표현하세요.
+3. 학교생활기록부에서 보여줄 수 있는 실적이나 활동을 강조하세요.
+결론적으로, 3.7의 점수로는 낮은 확률이지만, 충분히 준비하면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.05511811023622048</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.1484375</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 지원자의 성적을 평가해보겠습니다.
+1. **모집인원 및 지원자 수**: 
+   - 모집 인원: 22명
+   - 지원 인원: 145명
+2. **경쟁률**:
+   - 경쟁률 = 지원 인원 / 모집 인원 = 145 / 22 ≈ 6.59 : 1
+3. **성적 평균 및 표준 편차**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 357.63 / 5.37 }
+     - 평균: 357.63
+     - 표준 편차: 5.37
+4. **성적 비교**:
+   - 지원자의 성적 (국어 + 수학 + 탐구): 2.58
+   - 합격자들의 평균 성적: 357.63 / 5.37 ≈ 6.65
+지원자의 성적이 2.58이지만, 이는 표준 변환 점수로 보아야 합니다. 실제 수능 점수를 기반으로 하면 지원자의 성적은 상당히 낮습니다 (대략 100점대 중반에서 110점대 초반). 
+합격자들의 평균 성적이 6.65로, 지원자의 성적이 이보다 훨씬 낮기 때문에 정시 전형으로 합격하기는 어려울 것으로 보입니다.
+하지만 최종 결정은 입학사정관의 심사와 면접 결과 등 다양한 요인에 따라 달라질 수 있으므로, 지원자는 다음과 같은 점들을 고려해볼 필요가 있습니다:
+- **면접 준비**: 면접에서도 좋은 성적을 받기 위해 노력해야 합니다.
+- **추천서 및 자기소개서**: 이 부분에서 강점을 보여줄 수 있는 내용이 있다면 유리할 수 있습니다.
+- **추가 지원**: 다른 학교나 전형에 추가로 지원해보는 것도 고려해볼 만합니다.
+결론적으로, 정시 전형으로 간호학과에 합격하기는 어렵다고 판단됩니다. 그러나 최선을 다해 준비하고, 다른 전형이나 대안을 찾아보는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.1508515815085158</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.02444987775061125</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.08759124087591241</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接说明游戏学系（Game Engineering）的具体录取情况，包括预录号为7的学生是否会被录取。通常情况下，预录号（예비번호）意味着该学生已经被初步选定，但最终录取结果还需根据具体规定和流程来确定。
+建议您：
+1. 查看东国大学的官方网站或招生办公室获取最新的录取信息。
+2. 联系游戏学系的招生办公室询问具体情况。
+3. 关注学校发布的官方通知和公告，通常会公布预录号学生的最终录取结果。
+希望这些信息对您有所帮助！如果有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 성적 반영 비율이 다음과 같습니다:
+- 국어 (화법과작문 또는 언어와매체) : 25%
+- 수학 (확률과통계 또는 미적분 또는 기하) : 25%
+- 영어 : 25%
+- 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+수능 성적이 4.16정도라면, 각 영역별로 대략적으로 다음과 같이 계산할 수 있습니다:
+1. 국어: 4.16 * 0.25 = 1.04
+2. 수학: 4.16 * 0.25 = 1.04
+3. 영어: 4.16 * 0.25 = 1.04
+4. 탐구: 4.16 * 0.25 = 1.04
+총 합은 1.04 + 1.04 + 1.04 + 1.04 = 4.16점 정도 됩니다.
+게임공학과의 경우, 수능 최저 점수는 다음과 같습니다:
+- 국어: 3.5
+- 수학: 2.8
+- 영어: 3.0
+당신의 성적은 각 영역 모두 최저 점수를 충족하고 있습니다.
+그러나 추가 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **전형별 경쟁률**: 게임공학과는 지원자가 많을 가능성이 높습니다.
+2. **면접 및 서류 평가 결과**: 면접이나 서류 평가에서 우수한 성적을 받으면 추가 합격 가능성은 높아집니다.
+3. **학생부 및 기타 자료의 영향**: 학생부와 기타 제출서류의 내용이 중요합니다.
+따라서, 정확한 추가 합격 가능 횟수를 예측하기는 어렵습니다만, 수능 성적이 최저 점수를 충족하고 있으므로 추가 합격 가능성은 있습니다. 하지만 경쟁률과 면접 및 서류 평가 결과에 따라 달라질 수 있으니, 최선을 다해 준비하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처와 상담하여 더 자세한 정보를 얻는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.205607476635514</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.06572769953051644</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1261682242990654</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据您提供的表格数据，“경영정보학과”（即“经营信息学部”）的招生情况如下：
+- 招生人数：33人
+- 报名人数：95人
+- 竞争比：10.56
+此外，我们还需要关注的是该专业的最终录取分数标准。从表格中可以看到，“经营信息学部”的最终录取平均分为450.78分（含加分），标准差为5.90。
+您提到的“경영정보학과”成绩是3.75，这个成绩指的是英语等级吗？如果是的话，那么3.75对应的分数应该是：
+- 英语等级 3.78 对应的标准分为412.86分
+如果这是最终录取标准中的最低英语等级分数，那么仅凭这一点来看，您的英语成绩似乎略低于该专业的平均录取分数线。
+但是，这还不足以确定您是否能够被录取。因为最终的录取还取决于总分（国语 + 数学 + 探究科目），以及是否有其他加分项等具体情况。
+建议：
+1. 查看具体的最终录取分数标准。
+2. 确认您的总分（包括所有科目的成绩和可能的加分）是否达到了该专业的录取分数线。
+3. 如果您不确定，可以咨询学校的招生办公室以获取更准确的信息。
+希望这些信息对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.1007194244604317</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.08633093525179855</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（经管学院）的招生计划和要求。
+2. 学生的成绩情况。
+根据您提供的数据表，我们可以看到以下相关信息：
+- 经营信息学部在2024年的招生人数为95人。
+- 该专业的最高竞争比达到10.56。
+- 最终录取者的平均成绩（国语+数学+两门选修课加权分）为326.89，标准差为6.92。
+从这些数据来看：
+1. 经营信息学部的竞争非常激烈，竞争比高达10.56。
+2. 最终录取者的平均成绩相对较高（326.89），且有较大的分数波动范围（标准差6.92）。
+因此，如果您的总分为4.2分（假设这里的“4.2”是指标准化后的总分），这在实际操作中是非常高的。但是具体能否被录取还需要考虑以下几个因素：
+1. 您的具体成绩分布情况：是否接近或超过最终录取者的平均分。
+2. 是否有其他特殊优势，如特长、面试表现等。
+建议您：
+- 参考最近几年的招生数据和分数线。
+- 了解该专业的具体要求和其他可能影响录取的因素。
+- 如果有可能的话，咨询学校招生办公室获取更准确的信息。
+综上所述，在没有更多详细信息的情况下，仅凭总分4.2很难判断是否能被经营信息学部录取。建议您进一步核实相关信息并咨询学校以获得确切答案。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.05263157894736843</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部2024年招生计划中的名额。
+2. 同等水平学生的录取情况（尤其是国语、数学和英语的分数）。
+3. 招生标准的具体要求。
+根据提供的表格数据，“经营信息学部”在“多军-一般学生类型”的招生中，其招生人数为9人。从“多军-一般学生类型 最终注册者”表中的数据显示：
+- 国语 + 数学 + 选修课（2个）（含加分）标准转换分数总和：431.58
+- 英语等级：4.70
+- 各科目的等级：5.59
+这些数据表明，国语、数学和英语的平均成绩都相对较高。而您提到的成绩为5.33，这低于上述表格中显示的分数。
+因此，根据提供的信息来看，您的成绩（5.33）可能略低于该专业往年的录取标准。但是，最终是否能够被录取还需要考虑其他因素，如面试表现、个人陈述等。
+建议：
+1. 仔细阅读招生简章中的所有要求。
+2. 如果有可能的话，可以咨询学校的招生办公室获取更详细的信息和指导。
+3. 准备充分的面试材料和个人陈述，以提高竞争力。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.06201550387596899</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.06201550387596899</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학과의 경우, 정시 모집에서는 수능 성적 위주로 평가됩니다. 하지만 정확한 등록 가능 여부는 여러 요소에 따라 결정되므로 다음과 같은 정보를 참고하시면 도움이 될 것입니다:
+1. **수능 성적**: 바이오응용공학과의 경우, 수능 성적이 중요합니다. 3.33 정도의 수능 등급은 중간 수준입니다.
+2. **모집인원 및 지원자 수**: 각 모집단위별로 모집 인원과 지원자의 수가 다르므로 경쟁률이 높을 수도 있습니다.
+3. **최종등록자 성적 분포**: 최종 등록자들의 성적 분포를 확인하여 자신의 위치를 파악할 수 있습니다. 이 정보는 위에서 제공된 표로 얻을 수 있습니다.
+4. **전형요소 반영비율**: 바이오응용공학과의 경우, 정시 모집에서는 주로 수능 성적이 중요합니다. 하지만 학생부 교과성적 등 다른 요소도 고려될 수 있으므로 참고하시면 좋습니다.
+5. **최초등록자 표**: 위에서 제공된 "수능(일반학생전형) 최종등록자" 표를 확인하여 바이오응용공학과의 최저 성적을 파악할 수 있습니다. 이 표는 각 모집단위별로 지원자의 수, 경쟁률 등을 보여줍니다.
+6. **최초합격자 표**: "수능(일반학생전형) 최초합격자" 표를 확인하여 바이오응용공학과의 최저 성적을 파악할 수도 있습니다. 이 표는 각 모집단위별로 지원자의 수, 경쟁률 등을 보여줍니다.
+참고로, 3.33 정도의 수능 등급은 중간 수준으로, 경쟁이 높은 학과에서는 약간 낮은 성적일 수도 있습니다. 하지만 최종등록자 표를 확인하여 자신의 위치를 파악하고, 필요하다면 추가적으로 지원하거나 다른 전형을 고려해보는 것이 좋습니다.
+추가 정보를 원하시거나 더 자세한 분석이 필요하시다면, 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1902654867256637</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.1238938053097345</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과에 대한 정보를 바탕으로 답변 드리겠습니다.
+방사선학과는 다음과 같은 특징이 있습니다:
+1. 모집인원: 5명
+2. 지원 인원: 36명 (경쟁률 7.20)
+3. 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 341.62
+4. 영어 등급 평균: 2.60
+5. 수능 4개 영역 등급 평균: 3.67
+당신의 성적(국어 + 수학 + 탐구 4.4)은 방사선학과의 평균 점수보다 약간 높습니다. 그러나 경쟁률이 매우 높기 때문에, 확실한 합격을 보장하기는 어렵습니다.
+추천 사항:
+1. 성적을 최대한 끌어올리는 것이 중요합니다.
+2. 방사선학과의 입시 전략을 잘 준비해야 합니다 (면접 등).
+3. 다른 모집단위도 고려해보세요, 경쟁률이 낮은 곳으로 분산하면 안전성을 높일 수 있습니다.
+결론적으로, 당신의 성적만으로는 확실한 합격을 보장하기 어렵지만, 최선을 다한다면 가능성이 있습니다. 추가 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.09701492537313434</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 정시 모집에서 2.66이라는 점수는 상대적으로 낮은 수준입니다.
+방사선학과의 정시 모집에 대한 지원자들의 평균 경쟁률이 약 7.20으로 매우 높습니다 (표에서 확인 가능). 이와 비교했을 때, 2.66이라는 점수는 상대적으로 낮은 수준입니다.
+다음은 고려해야 할 몇 가지 포인트입니다:
+1. 경쟁률: 7.20이라는 매우 높은 경쟁률을 감안할 때, 2.66점은 낮은 점수로 보입니다.
+2. 가산점: 표에서 볼 수 있듯이 방사선학과는 수능 최저기준이 적용되지 않습니다. 따라서 이 점수만으로 판단해야 합니다.
+3. 합격 기준: 정확한 합격 기준은 제공되지 않았지만, 경쟁률이 매우 높다는 것은 합격 기준이 낮지 않을 가능성이 크지 않음을 의미합니다.
+4. 개인 능력: 수능 점수 외에도 면접 등 다른 평가 요소도 고려됩니다. 따라서 단순히 점수만으로 판단하기보다는 전반적인 지원 자격을 종합적으로 판단해야 합니다.
+결론적으로, 2.66이라는 점수는 상대적으로 낮은 수준이므로, 이 점수로 합격할 확률은 매우 낮다고 볼 수 있습니다. 그러나 정확한 합격 가능성을 예측하기 위해서는 더 많은 정보가 필요하며, 개인의 전반적인 지원 자격을 종합적으로 판단해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2582582582582583</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.09063444108761329</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.1741741741741742</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 경쟁률: 경찰행정학과의 경쟁률이 상당히 높습니다 (4.14). 이는 많은 지원자가 좋은 성적을 가지고 있는 것을 의미합니다.
+2. 합격 점수 평균: 표에서 보시듯, 경찰행정학과의 최초합격자의 국어+수학+탐구(2개) 표준 변환점수 평균은 301.87입니다. 이는 3.66보다 높습니다.
+3. 합격자 성적 분포: 표에서 보시듯, 경찰행정학과의 최초합격자의 국어+수학+탐구(2개) 표준 변환점수 평균은 301.87이고, 표준 편차는 6.23입니다. 이는 성적이 상대적으로 높게 분포되어 있다는 것을 의미합니다.
+4. 농어촌 전형 특성: 농어촌 전형은 일반적으로 경쟁률이 낮고 합격 기준 점수가 낮을 수 있지만, 여전히 최소한의 학업 성적이 요구됩니다.
+따라서 3.66이라는 성적만으로는 경찰행정학과 농어촌 전형에 합격하기 어렵다고 판단됩니다. 더 좋은 성적을 내거나 다른 전형을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.3631123919308357</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.1159420289855072</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1844380403458213</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 위치에서 합격할 확률은 상당히 낮습니다. 하지만 모든 것이 불확실한 요인들에 의해 좌우되므로, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률**: 현재 표시된 경쟁률을 확인하세요. 예를 들어, 25위가 40명 중에서 8명이 지원했으면 경쟁률은 약 5:1입니다.
+2. **성적 평균**: 표에 나온 합격자들의 성적이 어느 정도인지 확인해보세요. 자신의 성적이 그들보다 높다면, 조금 더 낙관적으로 생각할 수 있습니다.
+3. **가산점**: 일부 모집단위에서는 가산점을 받을 수 있으므로, 이 점도 고려해야 합니다.
+4. **전형 방식**: 각 모집단위의 전형 방식이 다르므로, 해당 단과대학의 전형 방법을 잘 이해하고 있어야 합니다.
+5. **동점자 처리 기준**: 동점자 처리 기준에 따라 추가 합격자가 발생할 수 있으므로, 이 점도 고려해보세요.
+6. **추가 모집 가능성**: 일부 모집단위에서는 충원을 통해 추가 합격자를 선발할 수 있습니다.
+결론적으로, 25위에서 합격하기는 어렵지만, 모든 요인들을 종합적으로 고려하면 조금 더 낙관적인 결과를 기대할 수도 있습니다. 하지만 확실한 것은 아니므로, 최선을 다해 준비하고, 다른 대안도 미리 검토하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1937046004842615</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.0389294403892944</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.1113801452784504</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 고려해야 합니다:
+1. **국어 + 수학 + 탐구(2개) 표준 변환점수 합 평균**: 
+   - 325.29 (표에서 확인)
+2. **영어 등급 평균**:
+   - 3.00 (표에서 확인)
+3. **수능 4개 영역 등급 평균**:
+   - 3.98 (표에서 확인)
+이러한 점수를 기준으로 보면, 법경찰행정학부는 상당히 경쟁률이 높은 학과로 알려져 있습니다.
+### 안정권을 위한 추천 점수:
+- **국어 + 수학 + 탐구(2개) 표준 변환점수 합**: 340~350
+- **영어 등급**: 3.5 이상
+- **수능 4개 영역 등급 평균**: 4.1 이상
+### 문을 닫고 들어갈 수 있는 점수:
+- **국어 + 수학 + 탐구(2개) 표준 변환점수 합**: 360~370
+- **영어 등급**: 3.8 이상
+- **수능 4개 영역 등급 평균**: 4.3 이상
+### 참고사항:
+1. **경쟁률**: 법경찰행정학부는 경쟁률이 높아, 이 기준을 넘지 못하면 안정적인 합격은 어렵습니다.
+2. **추천 전략**:
+   - 수능 성적 외에도 면접 준비를 철저히 해야 합니다 (면접 평균 점수는 400점대).
+   - 서류평가에서도 뛰어난 내용을 기재해야 합니다.
+3. **추가 정보**: 동의대학교 입학관리 홈페이지나 학교 관계자에게 직접 문의하여 최신 정보와 추가적인 조언을 얻는 것이 좋습니다.
+이러한 점수를 목표로 하여 준비하시면, 안정권에 들거나 문을 닫고 들어갈 수 있는 기회가 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.5216</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.2664526484751203</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.3391999999999999</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과에 지원하시려면, 정시 모집요강을 확인해야 합니다. 보육가정상담학과는 아동학과로 분류되므로 인문사회과학대학에 속합니다.
+보육가정상담학과의 입학 기준은 다음과 같습니다:
+1. **수능 성적**: 수능 성적이 중요하며, 특히 국어와 수학 영역이 주요하게 반영됩니다.
+2. **등급 기준**: 보통 5.0 이상이 필요합니다.
+주어진 정보로는 정시 산출 등급이 5.33이라는 점만 알려져 있습니다. 이 등급은 좋은 성적입니다. 그러나 정확한 합격 가능성 판단을 위해서는:
+1. **모집인원과 지원자 수**: 경쟁률을 확인해야 합니다.
+2. **최종등록자 성적 분석**: 최종 등록자의 성적 분포를 보고, 자신의 위치를 파악해야 합니다.
+따라서, 주어진 정보만으로는 확실한 답변을 드릴 수 없습니다. 하지만 5.33의 등급은 좋은 성적이므로 합격 가능성은 높다고 볼 수 있습니다. 최종 결정을 위해서는 동의대학교 입학 홈페이지나 모집요강을 확인하시거나, 대학 관계자에게 문의하시는 것이 좋습니다.
+추가적으로, 지원자의 전반적인 성적과 경쟁률 등을 고려하여 합격 가능성 판단이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.296969696969697</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.08536585365853658</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.1878787878787879</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>从给定的信息来看，关于东义大学补招第3次的预录名单（如预备12号）是否意味着有被录取的可能性，并没有直接说明。但是可以参考以下几点来推测：
+1. **预备名单**：通常预备名单上的学生是作为补充录取的候选人，如果正式录取的学生中有放弃的情况，这些预备名单上的学生将有机会被补录。
+2. **时间安排**：根据之前的日程表，补招第3次是在2024年2月15日至20日之间进行。这段时间内如果有学生放弃录取，那么预备名单上的学生有可能会被补录。
+3. **通知方式**：虽然学校表示不会对每个考生单独联系，但如果你在规定时间内没有收到任何通知，并且你的成绩和条件符合要求，可以主动联系学校询问具体情况。
+4. **竞争情况**：具体是否能被录取还取决于其他考生的情况。如果预备名单上的学生较多或者补录名额有限，那么竞争可能会比较激烈。
+建议：
+- 在规定的时间内（2024年2月15日至20日）保持手机畅通，并及时查看学校官网的通知。
+- 如果在规定时间内没有收到任何通知，可以主动联系学校的招生办公室询问具体情况。
+- 准备好相关材料和证明文件以备不时之需。
+综上所述，虽然预备名单并不保证一定会被录取，但仍有被补录的可能性。建议密切关注学校的通知并保持沟通。</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.09401709401709403</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.06837606837606837</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급은 상당히 높은 점수입니다. 대체로 대부분의 대학에서는 4.0 이상이 요구되며, 4.75는 매우 우수한 점수라고 할 수 있습니다.
+유아교육학과에 입학하기 위해서는 주요 요인들이 있습니다:
+1. **영어 등급**: 4.75는 좋은 성적입니다. 대부분의 대학에서는 영어 능력이 필요하므로 이 점수는 유리한 조건입니다.
+2. **국어, 수학, 탐구 과목**: 이들 과목에서도 높은 등급을 받았다면 더 좋습니다. 특히 국어와 수학은 교육 관련 학과에서 중요하게 평가받습니다.
+3. **면접 및 서류평가**: 유아교육학과는 종종 면접이나 서류 평가를 통해 지원자의 적합성을 판단하기 때문에, 이 부분에서도 좋은 성적을 받는 것이 좋습니다.
+4. **추천서나 자소서 등 추가 서류**: 일부 대학에서는 추천서나 자기소개서 등을 요구하므로, 이러한 문서들도 잘 준비하는 것이 중요합니다.
+유아교육학과의 경우 다음과 같은 점들을 고려해야 합니다:
+- **실무 경험**: 유아 교육에 대한 실제 경험이나 활동이 있다면 이점이 될 수 있습니다.
+- **자기소개서 및 면접**: 지원자의 열정과 적합성, 그리고 미래 계획 등을 잘 표현하는 것이 중요합니다.
+결론적으로 4.75의 영어 등급은 유리한 조건이며, 나머지 과목에서도 높은 성적을 받았다면 충분히 가능성이 있습니다. 그러나 최종 결정은 학교마다 다르므로, 해당 대학의 모집요강과 평균 점수를 확인하고 지원해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.03851444291609353</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.1069958847736626</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 일반학생전형에 대해, 정시 환산등급 4.16을 가지고 최종합격 가능성에 대해 평가해볼 수 있습니다.
+### 주요 정보:
+- **모집단위**: 보육가정상담학과 (아동학과)
+- **2023년도 최종 등록자 성적**:
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 평균 314.83, 표준 편차 14.22
+  - 영어 등급: 평균 3.83, 표준 편차 0.68
+  - 수능 4개 영역 등급: 평균 4.39, 표준 편차 0.24
+### 분석:
+1. **수능 점수**:
+   - 평균 국어 + 수학 + 탐구(2개) 표준 변환 점수 합은 314.83입니다.
+   - 이는 환산등급으로 4.0-4.5 사이의 범위에 속합니다.
+2. **영어 등급**:
+   - 평균 영어 등급은 3.83이며, 환산등급으로 보면 대략 4.0-4.5 사이입니다.
+3. **수능 4개 영역 등급**:
+   - 평균 수능 4개 영역 등급은 4.39로, 이는 환산등급으로 4.0-4.5 사이에 속합니다.
+### 결론:
+- **합격 가능성**: 
+  - 정시 환산등급이 4.16이라면, 평균적인 성적을 보면 합격 가능성이 높습니다.
+  - 하지만 최종 등록자들의 성적이 상대적으로 높은 편이므로, 경쟁률이 높아질 수 있습니다.
+### 참고사항:
+- **경쟁률**: 보육가정상담학과는 모집인원이 적고 지원자가 많기 때문에 경쟁률이 높을 가능성이 큽니다.
+- **면접 및 기타 요소**: 면접 등 추가 평가 요소도 중요한 역할을 합니다.
+따라서, 정시 환산등급 4.16은 합격 가능성은 있지만, 최종 등록자들의 성적과 경쟁률을 고려하면 신중하게 대비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2784222737819025</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.1165501165501166</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1948955916473318</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시 모집에서 지원할 수 없습니다. 표에서 볼 수 있듯이 이 학과는 "—"로 표기되어 있어 정시모집 대상이 아닙니다.
+또한, 해당 학과의 평균 등급 정보를 찾을 수 없습니다. 소프트웨어융합학과가 정시 모집 대상이 아니므로, 평균 등급에 대한 정보는 제공할 수 없습니다.
+만약 다른 학과에 대해 궁금하신 경우, 해당 학과의 최종등록자 표를 참조하시면 지원자의 평균 등급 등의 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.1565217391304348</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.1709401709401709</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 소프트웨어융합학과에 지원할 때, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 세특(학교생활기록부) 내용은 매우 중요한 역할을 합니다.
+1. **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 제시되며, 이에 대한 답변과 표현 능력 등을 평가합니다. 준비를 위해 자신의 지원 동기를 명확하게 정리하고, 고등학교나 직장에서의 경험을 바탕으로 학업 역량과 전공 적합성을 잘 설명할 수 있어야 합니다.
+2. **서류 평가**: 서류 평가는 학교생활기록부를 중심으로 이루어집니다. 세특 내용이 중요하게 평가되므로, 다음과 같은 점들을 주의 깊게 준비해야 합니다:
+   - **학업태도와 성취**: 수업시간에 적극적으로 참여했는지, 과제나 프로젝트에서 어떤 역할을 했는지를 잘 기재해야 합니다.
+   - **열정과 관심**: 지원하는 전공과 관련된 활동이나 경험을 자세히 기재하고, 그 활동에서 얻은 성취감이나 배움을 설명해야 합니다.
+   - **협업능력**: 협력적 태도와 배려심을 보여주는 사례를 들어야 합니다.
+3. **추가 서류**: 일반적으로 추가로 제출해야 하는 서류는 없습니다. 하지만 학교생활기록부 외에 학생부 대체 서류 등을 선택적으로 제출할 수 있습니다 (단, 이는 선택사항이며 필수는 아닙니다).
+4. **주의사항**:
+   - 세특 내용이 과장되거나 허위 기재되면 부정적 평가를 받을 수 있으므로, 실제 경험과 노력에 근거한 내용만 기재해야 합니다.
+   - 학교생활기록부의 학교폭력 기재 사실이 확인될 경우 감점 또는 불합격 처리될 수 있으므로 주의해야 합니다.
+따라서, 세특 내용을 잘 준비하고, 면접에서도 자신감 있게 답변할 수 있도록 철저히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.1674876847290641</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.0594059405940594</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.1133004926108374</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수는 동의대학교 소프트웨어공학부(나군 실기/실적)에 대한 경쟁률과 모집인원을 고려하면 상대적으로 좋은 성적이지만, 최종 합격 가능성은 여러 요소에 따라 달라질 수 있습니다.
+1. **모집단위와 경쟁률**: 동의대학교 소프트웨어공학부는 나군 실기/실적 모집단위로, 경쟁률이 높을 수 있습니다. 4.08이라는 점수는 평균 이상이나, 최고점수를 기록한 지원자들 중에서도 상위권에 속할 것입니다.
+2. **최초합격자 표**: 위의 표에서 동의대학교 소프트웨어공학부의 최초합격자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 330.11~453.83 사이입니다. 이 중에서 4.08이라는 점수가 상위권에 속할 것입니다.
+3. **등급**: 영어 등급이 3.30~4.12로, 평균 이상의 성적이므로 이 부분에서도 좋은 점수를 받았습니다.
+4. **모집인원과 지원자 수**: 동의대학교 소프트웨어공학부는 모집인원이 30명이고, 지원자가 146명이라는 것을 고려하면 경쟁률은 높을 것입니다.
+따라서, 4.08이라는 점수로는 최초합격 가능성은 있지만, 확실한 것은 아닙니다. 최종 합격 여부는 모집인원과 지원자 수, 그리고 다른 지원자의 성적 등 다양한 요소에 따라 결정됩니다.
+추가적으로, 동의대학교 입학 홈페이지나 대학 관계자에게 직접 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.1624365482233503</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1919191919191919</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프트웨어융합학과의 경우, 전형명은 "실기/실적 위주"로 분류되어 있습니다. 이전형의 평균 등급을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 306.44 / 17.51 }
+- 영어 등급: { 3.00 / 0.88 }
+- 수능 4개 영역 등급: { 5.27 / 0.43 }
+이 중 특히 "수능 4개 영역 등급"의 평균이 5.27으로 높습니다.
+따라서, 소프트웨어융합학과는 수능 등급이 중요한 요소로 작용합니다. 5등급은 상대적으로 낮은 점수이며, 이전년도의 평균 등급(5.27)보다 높습니다.
+하지만, 정확한 합격 가능성 판단을 위해서는:
+1. 현재 지원자의 전체 성적과 경쟁률을 고려해야 합니다.
+2. 다른 전형에서의 성적이 좋은 경우, 합격 가능성이 높아질 수 있습니다.
+3. 면접이나 실기 등 다른 평가 요소도 중요한 역할을 하므로, 해당 부분에서도 우수한 성적을 보여줘야 할 수 있습니다.
+따라서, 5등급으로만 지원하는 것은 위험할 수 있으며, 가능한 한 높은 등급을 유지하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.3002832861189802</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.1082621082621082</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.169971671388102</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 입학할 가능성을 평가해보겠습니다.
+1. **모집 인원 및 지원자 수**: 
+   - 신소재공학과는 모집인원이 56명이고, 지원자는 81명입니다.
+   - 경쟁률은 약 1.45:1로 낮지 않지만, 여전히 가능성이 있습니다.
+2. **성적 분포**:
+   - 표준 변환 점수 평균은 286.97이고, 표준 편차는 15.35입니다.
+   - 이 성적은 약 4분위 수준으로 볼 수 있습니다.
+3. **성적 등급**:
+   - 영어 등급 평균이 4.33이며, 표준 편차가 0.88입니다.
+   - 수능 4개 영역 등급 평균은 5.32이고, 표준 편차는 0.36입니다.
+4. **성적 분석**:
+   - 4.28의 성적은 약간 낮은 편이지만, 신소재공학과의 경쟁률이 낮아서 가능성이 있습니다.
+   - 특히, 특정 모집단위에서는 수능 점수 외에도 실기나 면접 등 다른 요인들이 고려될 수 있으므로, 전반적인 평가에서 좋은 성적을 받았다면 기회는 있을 수 있습니다.
+5. **추천**:
+   - 지원 시에는 추가적으로 면접이나 실기 준비를 철저히 해야 합니다.
+   - 학교 홈페이지나 입학처에 문의하여 최신 정보와 전형 방식을 확인하는 것이 좋습니다.
+결론적으로, 4.28이라는 성적은 신소재공학과에 입학할 수 있는 가능성이 있지만, 경쟁률이 낮지 않으므로 추가적인 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.1769041769041769</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 제출하지 않아도 됩니다. 
+주요 사항은 다음과 같습니다:
+1. **자기소개서 미제출**: 일반학생전형에서는 자기소개서를 요구하지 않습니다.
+2. **제출서류**:
+   - 고교 졸업(예정)자는 학생부 온라인 제공 동의자가 아닌 경우에만 학교생활기록부를 제출해야 합니다.
+   - 검정고시 출신자, 외국고교 졸업(예정)자는 요구되는 서류를 제출하면 됩니다.
+3. **서류평가 영역**:
+   - 공동체역량
+   - 학업역량 
+   - 전공적합성
+4. **면접평가**: 일부 모집단위에서는 면접을 실시하지만, 자기소개서는 필요하지 않습니다.
+따라서 수능(일반학생전형)으로 지원할 때는 주로 학생부와 수능 성적 등을 기반으로 평가됩니다. 자세한 내용은 동의대학교 입학처 홈페이지를 참고하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.09375000000000001</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.03157894736842105</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.07291666666666667</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능 정시 모집에서 4.5라는 점수는 상당히 낮은 수준입니다. 일반적으로 동의대학교의 정시 모집에서는 다음과 같은 요인들을 고려합니다:
+1. **전형별 합격기준**: 각 전형별로 다른 합격 기준이 있습니다. 예를 들어, 일부 전형은 수능 점수보다 서류나 면접 등 다른 평가 항목을 더 중요하게 보는 경우도 있습니다.
+2. **정시 모집인원**: 정시 모집 인원이 많지 않다면, 낮은 수능 점수라도 추가모집이나 충원에서 합격할 가능성은 있습니다. 하지만 인원이 많다면 낮은 점수가 합격하기는 어렵습니다.
+3. **추가모집 및 충원**: 일부 전형에서는 추가모집 또는 충원을 통해 낮은 점수라도 합격할 수 있는 경우가 있습니다. 이때는 서류평가, 면접 등 다른 평가 항목이 중요하게 작용할 수 있습니다.
+4. **전형별 특성**: 일부 전형에서는 수능 점수가 상대적으로 적게 반영되는 경향이 있으므로, 낮은 수능 점수라도 다른 평가 항목에서 좋은 성적을 받으면 합격 가능성은 있습니다.
+5. **학과 별 차이**: 각 학과별로 수능 점수의 중요도와 기준이 다를 수 있으므로, 특정 학과에서는 낮은 수능 점수라도 합격할 수 있는 경우가 있습니다.
+따라서 4.5라는 점수만으로는 확실한 합격을 보장하기 어렵습니다. 추가모집이나 충원에서 합격 가능성은 있지만, 다음과 같은 조치를 취해보시는 것이 좋겠습니다:
+- **서류 및 면접 준비**: 서류평가와 면접 등 다른 평가 항목에서 좋은 성적을 받도록 준비하세요.
+- **추가모집 정보 확인**: 추가모집이나 충원에 대한 공지사항을 주의 깊게 확인하고, 필요한 서류를 제출하십시오.
+- **학과 선택**: 수능 점수가 낮더라도 특정 학과에서는 낮은 점수라도 합격할 수 있으므로, 자신에게 맞는 학과를 선택해보세요.
+결론적으로 4.5라는 점수만으로는 확실한 합격을 보장하기 어렵지만, 추가모집이나 충원에서 좋은 성적을 받으면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3396226415094339</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1101549053356282</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)는 정시 모집군 나군에 속합니다.
+나군의 수능 반영방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+- 수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 가산점이 적용됩니다.
+따라서 신소재공학과를 정시로 지원하기 위해서는:
+1. 국어, 영어 등급, 탐구 과목의 성적이 필요합니다.
+2. 수학을 응시한 경우, 수학 점수에 10% 가산점이 적용됩니다.
+정확한 합격 기준 점수를 알기 위해서는 동의대학교 입학처 홈페이지나 모집요강을 확인하는 것이 가장 정확할 것입니다. 하지만 일반적으로 신소재공학과와 유사한 분야의 공학과에서는 3등급 이상의 수능 성적을 보유하고 있는 지원자가 많습니다.
+따라서, 대략적인 기준으로는:
+- 국어: 100점대 중반
+- 수학(미적분 또는 기하): 95점 이상 (응시 시 가산점 적용)
+- 영어: 4등급 이상
+- 탐구 과목: 2개의 3등급 이상
+이러한 성적이 기본적인 합격 가능성을 높일 수 있습니다. 하지만 최종 합격 가능성은 모집인원, 지원자들의 성적 분포 등 다양한 요소에 따라 달라질 수 있으므로 정확한 정보는 공식 입학처 웹사이트를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.1884498480243161</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.04892966360856268</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1094224924012158</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 신소재공학과의 최종 합격평균 점수가 448점으로 작년에 비해 약간 높아진 것을 확인했습니다. 이는 작년보다 약간 더 높은 점수를 요구했음을 의미합니다.
+당장은 동일한 표준점수인 447점으로도 최종 합격이 가능할 수 있지만, 확률적으로는 작년보다 낮아진 것으로 보입니다. 
+다음과 같은 요소들을 고려해보시면 도움이 될 것입니다:
+1. **표준점수 변동**: 표준점수가 약간 상승했으므로 동일한 점수라도 더 높은 경쟁률을 맞아야 합니다.
+2. **모집인원 변화**: 작년과 비교해 모집인원이 증가하거나 감소했는지 확인하세요. 이에 따라 합격기준이 달라질 수 있습니다.
+3. **전형 요소의 중요도**: 작년과 올해의 전형요소 비율이나 가산점 등이 달라졌다면 이를 고려해야 합니다.
+4. **실적 및 실기 평균 점수**: 일부 학과에서는 실적 또는 실기 점수가 포함되므로 이 부분도 확인해보세요.
+5. **전형 경쟁률**: 작년의 전형 경쟁률을 참조하여 현재의 상황을 판단하세요.
+결론적으로, 447점으로 최종 합격이 가능할 수 있지만, 작년보다 낮은 확률일 것으로 예상됩니다. 정확한 확률을 알기 위해서는 동의대학교 입학처에 직접 문의하거나, 최근 몇 년간의 합격자 점수를 분석하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2160493827160493</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.04968944099378882</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 성적이면 신소재공학과의 경우, 정시 모집단위별로 수능 반영 비율이 다음과 같습니다:
+- 국어(25%), 수학(미적분 또는 기하)(25%), 영어(25%), 탐구(사회탐구 또는 과학탐구 - 2개 과목 합)(25%)
+4.3 등급을 반영하면 대략 다음과 같은 점수를 얻을 수 있습니다:
+- 국어: 약 100점대 중반
+- 수학: 약 90점대 후반 
+- 영어: 약 80점대 중반
+이러한 성적을 가지고 신소재공학과에 지원한다면, 경쟁률과 모집인원 등을 고려할 때 낮은 확률로 합격 가능성은 있습니다. 하지만 정확한 합격 가능성을 예측하기 위해서는:
+1. 해당 모집단위의 최종 합격자들의 성적 분포를 확인해야 합니다.
+2. 지원자의 전반적인 경쟁력을 평가해야 합니다 (예: 학교생활기록부, 자기소개서 등).
+3. 정시 모집인원과 지원 인원을 비교하여 경쟁률을 파악해야 합니다.
+따라서 4.1~4.2등급으로는 낮은 확률로 합격할 수 있지만, 최선의 준비를 하고 지원하는 것이 중요합니다. 또한 다른 전형 (예: 특기자전형 등)도 고려해보시는 것도 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.3480176211453744</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.07079646017699115</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.1806167400881057</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 정확한 최저합격선을 말씀드리기는 어렵습니다. 하지만, 대략적인 수능 성적 범위를 예측해볼 수 있습니다.
+인공지능학과는 공학교육인증제 운영 학과로, 전형요소 반영비율은 다음과 같습니다:
+- 국어: 25%
+- 수학(미적분 또는 기하): 25% (가산점 포함)
+- 영어: 25%
+- 탐구: 25%
+수능 성적 산출방법은:
+국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학 응시자에 한해)
+대략적인 최저합격선을 예측하기 위해서는 각 영역별로 평균 점수를 고려해야 합니다. 일반적으로 인공지능 관련 학과에서는 다음과 같은 성적을 요구할 수 있습니다:
+- 국어: 100점 이상
+- 수학: 미적분 또는 기하 중 하나에서 100점 이상 (가산점 포함)
+- 영어: 4등급 이상
+- 탐구: 과학탐구나 사회탐구 등에서 50점 이상
+따라서, 대략적인 최저합격선은 다음과 같을 수 있습니다:
+국어 표준점수: 100
+수학 표준점수 (미적분 또는 기하): 100 + 가산점 (대략 10)
+영어 등급점수: 123 (4등급)
+탐구 표준점수: 50
+총 합계 점수: 363점 정도
+이 수치는 대략적인 예측이며, 실제 최저합격선은 입학사정관의 평가와 동점자 처리기준 등에 따라 변동될 수 있습니다. 따라서, 정확한 최저합격선을 확인하려면 동의대학교 입학처 홈페이지나 전화로 문의하는 것이 가장 좋습니다.
+추가적으로, 인공지능 관련 학과에서는 실무 능력이나 프로젝트 경험 등도 중요하게 평가하기 때문에, 이러한 부분도 준비해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.2948207171314741</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.2111553784860558</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息。根据您提供的表格数据，特别是“ 수능(일반학생전형) 최종등록자”表（2024学年一般学生入学考试最终注册者），我们可以分析一下。
+首先，我们注意到5.27这个分数对应的是ICT融合工学院的计算机科学与技术专业。根据该专业的数据：
+- 招生人数：12
+- 报名人数：51
+- 竞争比：4.25
+- 国语 + 数学 + 探讨（两个科目）（含加分）标准转换分数总和 { 平均 / 标准差 }：325.15 / 6.53
+您的成绩为5.27，这对应于该专业的国语+数学+探讨的平均标准转换分数。从这个角度来看，您的成绩看起来是符合该专业的要求的。
+但是，为了更准确地判断是否可以被录取，我们需要考虑以下几个因素：
+1. **竞争比**：虽然您的成绩高于该专业的平均分（325.15），但竞争比为4.25，意味着有较高的竞争压力。
+2. **其他科目和综合评价**：除了分数之外，学校还会考虑学生的综合素质、面试表现等。因此，即使分数符合要求，也需要确保其他方面也达到录取标准。
+综上所述，根据提供的信息来看，您的成绩是有可能被该专业录取的，但具体能否成功还需要结合其他因素进行评估。建议您详细查看学校的招生简章和具体的录取条件，并准备充分以应对可能的竞争。</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.06077872744539412</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.01902949571836347</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.04178537511870846</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 등급으로 보이는데, 동의대학교 소프트웨어공학부에 지원하려면 정시모집군과 모집단위를 확인해야 합니다.
+1. **정시모집군**: 동의대학교 소프트웨어공학부는 가군(일반학생전형)에 해당합니다.
+2. **성적 산출방법**: 가군(일반학생전형)에서는 국어 + 수학 + 영어 등급점수 + 탐구 표준점수를 합산하여 성적이 결정됩니다.
+이 정보를 바탕으로, 4.2의 등급을 점수로 변환해보겠습니다:
+- **국어**: 4.2 등급 -&gt; 135점 (대략적인 변환값)
+- **수학**: 4.2 등급 -&gt; 135점
+- **영어**: 4.2 등급 -&gt; 135점
+- **탐구**: 가산점 없음
+따라서, 기본 점수는 다음과 같습니다:
+\[ 135 + 135 + 135 = 405 \]
+동의대학교 소프트웨어공학부의 모집단위별 성적 기준을 확인해야 합니다. 일반적으로 동의대학교 소프트웨어공학부는 경쟁률이 높은 학과로, 평균적인 지원자들의 점수가 400점대 중반에서 450점대를 넘어서는 경우가 많습니다.
+따라서, 기본적으로 4.2 등급으로는 낮은 확률로 합격할 수 있습니다. 하지만 다음과 같은 요인들이 합격 가능성에 영향을 줄 수 있습니다:
+1. **모집 인원과 지원자 수**: 모집 인원이 적고 지원자가 많으면 경쟁률이 높아지므로 낮은 점수로도 합격할 가능성이 있습니다.
+2. **특기사항이나 추가 면접 등**: 일부 학과에서는 특기사항이나 추가 면접 등을 통해 합격자를 선발하기 때문에, 이에 대한 준비가 필요합니다.
+결론적으로, 4.2의 점수로는 낮은 확률이지만, 경쟁률과 모집 인원 수 등 여러 요인을 고려하여 최선을 다해 지원하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.2037914691943128</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1279620853080569</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了判断是否可以申请东国大学化工环境工程学部，我们需要考虑以下几个因素：
+1. **最低录取标准**：根据您提供的信息，该专业的最低录取标准是4.80。这意味着您的成绩3.92低于这个分数线。
+2. **加分项**：
+   - 您的成绩为3.92。
+   - 但是有加分为467.82分（其中数学部分为9.80）。
+   - 加分后总分为：467.82 + 3.92 = 471.74。
+3. **比较加分后的成绩与最低录取标准**：
+   - 最低录取标准是4.80，而您的加分后总分为471.74。
+   - 这个分数明显高于最低录取线。
+综上所述，虽然您原始的高考成绩为3.92低于该专业的最低录取分数线，但加上数学部分的加分后，您的总分达到了471.74，超过了4.80的最低录取标准。因此，在考虑了所有因素之后，理论上是有可能申请并被化工环境工程学部录取的。
+建议您：
+- 确认是否还有其他附加条件或限制。
+- 与招生办公室联系确认具体要求和流程。
+- 准备好所有必要的申请材料以确保顺利申请。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.06369426751592358</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.06369426751592358</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 수능에서 국어, 수학, 영어 등급점수, 과탐 중 상위 3개 영역의 표준점수를 반영한 경우입니다.
+동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?
+답변: 가능합니다. 동의대학교 화학환경공학부는 수능 반영방법이 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+따라서, 4.25라는 점수는 수능에서 국어, 수학, 영어 등급점수, 과탐 중 상위 3개 영역의 표준점수를 반영한 경우입니다.
+이 점수로 동의대학교 화학환경공학부 원서접수 했습니다. 수능 일반학생전형으로 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.3360655737704918</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.1074380165289256</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.1885245901639344</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 등급은 대체로 좋은 점수입니다. 하지만 영화학과의 경우, 전형요소 중에서 면접 평가가 중요한 역할을 하므로 단순히 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다.
+영화학과의 특성상 다음과 같은 요인들이 중요하게 작용할 수 있습니다:
+1. **면접 성적**: 면접에서는 지원자의 창의성, 표현력, 관심사 등을 평가합니다.
+2. **서류 평가**: 학생부 교과성적 외에도 동아리 활동, 프로젝트 참여 등이 고려될 수 있습니다.
+3. **특기사항**: 창작 작품이나 영화관람 기록 등이 중요하게 평가받을 수 있습니다.
+따라서 다음과 같은 점들을 확인해보세요:
+- 면접 준비를 충분히 하였는지
+- 학생부에서 창의적 활동이나 관심사가 잘 반영되어 있는지
+- 특기사항이나 동아리 활동 등이 영화와 관련이 있는지
+만약 이러한 요소들이 잘 준비되었다면, 4.2의 성적은 충분히 좋은 점수일 수 있습니다. 하지만 최종 합격 여부는 면접 결과와 서류 평가 등 다양한 요인에 따라 결정되므로 확실한 답변을 드리기는 어렵습니다.
+추가적으로, 동의대학교 입학 홈페이지나 관련 공지사항을 확인해보시고, 필요하다면 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.2453333333333333</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.05361930294906166</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.1546666666666667</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译结果：
+面试流程如下：
+1. 进入候考室
+2. 确认身份 
+3. 移动到考场外
+4. 进入考场
+5. 演讲支持动机及学业计划
+6. 讨论学业能力、专业适应性相关共同问题并回答提问
+7. 其他问题（提交文件的真实性等）
+8. 离场
+请参考以上流程。如果有任何疑问，请访问“https://ipsi.deu.ac.kr/main.do”。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.4144144144144144</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.4144144144144144</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4189730119700492</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.288840212614816</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3677620640497194</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2782187121934901</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.1207865362768867</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.2103826760067237</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.3017439916111554</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.1616164456133045</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.2366566254980808</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3485958620817696</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.2048133744458514</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.2890723700282216</v>
+      <c r="D305" t="n">
+        <v>0.3329785719248983</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.1904143981683357</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.2716004551848413</v>
       </c>
     </row>
   </sheetData>
